--- a/DRE/cap08-BasesDeDatos/_Ant/IPT_ACRM_BD4_Countries_150519.xlsx
+++ b/DRE/cap08-BasesDeDatos/_Ant/IPT_ACRM_BD4_Countries_150519.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
   <si>
     <t>Campo</t>
   </si>
@@ -162,13 +162,19 @@
   </si>
   <si>
     <t>El country manager asignado al país.</t>
+  </si>
+  <si>
+    <t>Ob</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +194,24 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="MS Sans Serif"/>
     </font>
   </fonts>
   <fills count="6">
@@ -222,7 +246,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -420,11 +444,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -460,9 +494,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -511,9 +542,28 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -791,268 +841,316 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.85546875" customWidth="1"/>
-    <col min="7" max="7" width="35.5703125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="34.42578125" customWidth="1"/>
+    <col min="8" max="8" width="35.5703125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="6">
+      <c r="D2" s="6">
         <v>255</v>
       </c>
-      <c r="D2" s="5"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="6">
+      <c r="D3" s="6">
         <v>255</v>
       </c>
-      <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="G5" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="19">
+      <c r="D6" s="18">
         <v>2</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="18"/>
+      <c r="F6" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="G6" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="21"/>
-    </row>
-    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="H6" s="20"/>
+    </row>
+    <row r="7" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="5">
+      <c r="D7" s="5">
         <v>3</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="G7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="H7" s="29" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="5">
+      <c r="D8" s="5">
         <v>3</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="G8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="H8" s="29"/>
+    </row>
+    <row r="9" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="5">
+      <c r="D9" s="5">
         <v>3</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5"/>
+      <c r="F9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="G9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="6">
+      <c r="D10" s="6">
         <v>8</v>
       </c>
-      <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="5"/>
+      <c r="G10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="11" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="6">
+      <c r="D11" s="6">
         <v>255</v>
       </c>
-      <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="5"/>
+      <c r="G11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="C12" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="16">
+      <c r="D12" s="15">
         <v>3</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="17" t="s">
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="26"/>
-    </row>
-    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="H12" s="25"/>
+    </row>
+    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="C13" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="D13" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="24"/>
+      <c r="F13" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="G13" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="H13" s="28" t="s">
         <v>42</v>
       </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="33"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
